--- a/DataFiles/ExcelFiles/ESG Values.xlsx
+++ b/DataFiles/ExcelFiles/ESG Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\QA Setup\ESG\esg\DataFiles\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEFC667-A70F-4D8F-BC00-F496F23A2D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5469A87F-BFC7-4834-B354-FDEE76C6DB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="25" xr2:uid="{5FBEFB25-902E-40C4-B000-9485C1802081}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="27" activeTab="28" xr2:uid="{5FBEFB25-902E-40C4-B000-9485C1802081}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Audit" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,8 @@
     <sheet name="RNC_Regression" sheetId="24" r:id="rId25"/>
     <sheet name="BenchMarking" sheetId="25" r:id="rId26"/>
     <sheet name="SingleFileUpload" sheetId="26" r:id="rId27"/>
+    <sheet name="CompressedFileUploadInstall" sheetId="28" r:id="rId28"/>
+    <sheet name="Enrollment_Property_Check" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1020">
   <si>
     <t xml:space="preserve">Keys </t>
   </si>
@@ -2729,6 +2731,390 @@
   </si>
   <si>
     <t>3823 30TH ST UNVERIFIED ADDRESS San Diego, CA 92104-3609 US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Trade Ally </t>
+  </si>
+  <si>
+    <t>Open - Unscheduled / Awaiting Results</t>
+  </si>
+  <si>
+    <t>Application status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation Trade Ally </t>
+  </si>
+  <si>
+    <t>Installation status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspection Trade Ally </t>
+  </si>
+  <si>
+    <t>Inspection  status</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Non-aggregated</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>Non - Aggegation Module Step 4</t>
+  </si>
+  <si>
+    <t>Non - Aggegation Module Step 5</t>
+  </si>
+  <si>
+    <t>Measure Iqty</t>
+  </si>
+  <si>
+    <t>Incentive Unit Price</t>
+  </si>
+  <si>
+    <t>Savings KWh</t>
+  </si>
+  <si>
+    <t>Savings KW</t>
+  </si>
+  <si>
+    <t>Savings Winter KW</t>
+  </si>
+  <si>
+    <t>Savings Summer KW</t>
+  </si>
+  <si>
+    <t>Savings Therms</t>
+  </si>
+  <si>
+    <t>Enrollment Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program Name </t>
+  </si>
+  <si>
+    <t>Regression - compressed Upload with Installation</t>
+  </si>
+  <si>
+    <t>2017 (1/1/2017 - 12/31/2019)</t>
+  </si>
+  <si>
+    <t>Payee Name</t>
+  </si>
+  <si>
+    <t>Energy Efficiency Contractor (EEC)</t>
+  </si>
+  <si>
+    <t>Invoice Total:</t>
+  </si>
+  <si>
+    <t>Number of Enrollments:</t>
+  </si>
+  <si>
+    <t>Invoice Amount</t>
+  </si>
+  <si>
+    <t>Savings summer KW</t>
+  </si>
+  <si>
+    <t>Enrollment Validations</t>
+  </si>
+  <si>
+    <t>status of the Invoice</t>
+  </si>
+  <si>
+    <t>Submitted to Accounting - Awaiting Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Installation Validations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Application Validations</t>
+  </si>
+  <si>
+    <t>SF429993-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enrollment Profile - Workflow Status</t>
+  </si>
+  <si>
+    <t>Job Cost Summary Validations</t>
+  </si>
+  <si>
+    <t>Payee name</t>
+  </si>
+  <si>
+    <t>Attic Insulation (Kerrie) (AINS)</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate Invoice </t>
+  </si>
+  <si>
+    <t>Upload Validation</t>
+  </si>
+  <si>
+    <t>304792018-20</t>
+  </si>
+  <si>
+    <t>Automation - Enrollment Property Check</t>
+  </si>
+  <si>
+    <t>AccessToAllRooms</t>
+  </si>
+  <si>
+    <t>AccountClass</t>
+  </si>
+  <si>
+    <t>AccountClassCode</t>
+  </si>
+  <si>
+    <t>ApplicationSubmissionDate</t>
+  </si>
+  <si>
+    <t>BuildingType</t>
+  </si>
+  <si>
+    <t>BuildingTypeCode</t>
+  </si>
+  <si>
+    <t>BuildingTypeId</t>
+  </si>
+  <si>
+    <t>ClimateZone</t>
+  </si>
+  <si>
+    <t>ClimateZoneCode</t>
+  </si>
+  <si>
+    <t>ClimateZoneId</t>
+  </si>
+  <si>
+    <t>EnrollmentId</t>
+  </si>
+  <si>
+    <t>EnrollmentStatus</t>
+  </si>
+  <si>
+    <t>InstallationCounty</t>
+  </si>
+  <si>
+    <t>OccupancyStatus</t>
+  </si>
+  <si>
+    <t>OccupancyStatusCode</t>
+  </si>
+  <si>
+    <t>OccupancyStatusId</t>
+  </si>
+  <si>
+    <t>PremiseCounty</t>
+  </si>
+  <si>
+    <t>ProgramCode</t>
+  </si>
+  <si>
+    <t>ProgramId</t>
+  </si>
+  <si>
+    <t>ProjectCost</t>
+  </si>
+  <si>
+    <t>QualifiedReservedAmount</t>
+  </si>
+  <si>
+    <t>ReservedAmount</t>
+  </si>
+  <si>
+    <t>ServiceAccountNo</t>
+  </si>
+  <si>
+    <t>ServiceProviderAssociatedTradeAllyId</t>
+  </si>
+  <si>
+    <t>ServiceProviderCode</t>
+  </si>
+  <si>
+    <t>ServiceProviderName</t>
+  </si>
+  <si>
+    <t>TotalIncementalMeasureCostAmount</t>
+  </si>
+  <si>
+    <t>TotalIncentiveAmount</t>
+  </si>
+  <si>
+    <t>TotalMeasureCostAmount</t>
+  </si>
+  <si>
+    <t>TradeAllyName</t>
+  </si>
+  <si>
+    <t>TradeAllyVendorNumber</t>
+  </si>
+  <si>
+    <t>VendorPremiseId</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>RESI</t>
+  </si>
+  <si>
+    <t>Not Submitted</t>
+  </si>
+  <si>
+    <t>MFM</t>
+  </si>
+  <si>
+    <t>Panhandle</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Placer</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>USP</t>
+  </si>
+  <si>
+    <t>Application Enrollment Property Fields Validation</t>
+  </si>
+  <si>
+    <t>Application Set Property Fields Validation</t>
+  </si>
+  <si>
+    <t>ActualVisitDate</t>
+  </si>
+  <si>
+    <t>AssignedContractorId</t>
+  </si>
+  <si>
+    <t>EnrollmentWorkflowStepId</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>PricingDate</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>ScheduledVisitDate</t>
+  </si>
+  <si>
+    <t>ServiceCode</t>
+  </si>
+  <si>
+    <t>ServiceId</t>
+  </si>
+  <si>
+    <t>SummerkW</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>WinterkW</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>WorkflowCompletionDate</t>
+  </si>
+  <si>
+    <t>WorkflowCreateDate</t>
+  </si>
+  <si>
+    <t>WorkflowStep</t>
+  </si>
+  <si>
+    <t>WorkflowStepId</t>
+  </si>
+  <si>
+    <t>WorkflowStepOutcomeCode</t>
+  </si>
+  <si>
+    <t>WorkflowStepOutcomeId</t>
+  </si>
+  <si>
+    <t>WorkflowStepStatus</t>
+  </si>
+  <si>
+    <t>Not Visited</t>
+  </si>
+  <si>
+    <t>No Pricing Date Found</t>
+  </si>
+  <si>
+    <t>Not Scheduled</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+  </si>
+  <si>
+    <t>No Creation Date Found</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Applicataion Validation</t>
+  </si>
+  <si>
+    <t>Measure Quantity</t>
+  </si>
+  <si>
+    <t>Application Fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Processor - Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to All Rooms </t>
+  </si>
+  <si>
+    <t>AppProcessor, Utility</t>
+  </si>
+  <si>
+    <t>Not Required</t>
+  </si>
+  <si>
+    <t>Application Details valdiation After Save</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Renter</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -2819,7 +3205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2877,6 +3263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2966,7 +3358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3117,6 +3509,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3162,10 +3561,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3764,10 +4166,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="80"/>
+      <c r="B35" s="83"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4669,7 +5071,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,10 +5196,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>389</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="83"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4888,10 +5290,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="86" t="s">
         <v>406</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="83"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
@@ -5143,25 +5545,25 @@
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -5187,13 +5589,13 @@
       <c r="A5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="90">
         <v>1111111111</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
@@ -5207,13 +5609,13 @@
       <c r="A7" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="91" t="s">
         <v>444</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -6624,10 +7026,10 @@
       <c r="C13" s="39"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6930,10 +7332,10 @@
       <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="95" t="s">
         <v>492</v>
       </c>
-      <c r="B21" s="92"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -7070,10 +7472,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="97"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
     </row>
@@ -7110,10 +7512,10 @@
       <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
     </row>
@@ -7174,10 +7576,10 @@
       <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
     </row>
@@ -7237,10 +7639,10 @@
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:4" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="86" t="s">
         <v>523</v>
       </c>
-      <c r="B21" s="80"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
     </row>
@@ -7262,10 +7664,10 @@
       <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="86" t="s">
         <v>522</v>
       </c>
-      <c r="B25" s="80"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
     </row>
@@ -7434,16 +7836,16 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="82"/>
+      <c r="F1" s="85"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="84"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -7498,10 +7900,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="84"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7576,10 +7978,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="81"/>
+      <c r="B20" s="84"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7917,10 +8319,10 @@
     </row>
     <row r="7" spans="1:4" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
     </row>
@@ -7955,10 +8357,10 @@
       <c r="D11" s="42"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="86" t="s">
         <v>546</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="55"/>
       <c r="D13" s="55"/>
     </row>
@@ -8036,10 +8438,10 @@
       <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="86" t="s">
         <v>553</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
     </row>
@@ -8227,10 +8629,10 @@
       <c r="D47" s="42"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="86" t="s">
         <v>579</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
     </row>
@@ -8414,10 +8816,10 @@
       <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="86" t="s">
         <v>606</v>
       </c>
-      <c r="B73" s="80"/>
+      <c r="B73" s="83"/>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
     </row>
@@ -8505,10 +8907,10 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="86" t="s">
         <v>542</v>
       </c>
-      <c r="B86" s="80"/>
+      <c r="B86" s="83"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
@@ -9737,10 +10139,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC58E5E3-62A1-4F85-AB98-BB387756F2FD}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9780,7 +10182,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>732</v>
       </c>
@@ -9788,7 +10190,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>735</v>
       </c>
@@ -9805,10 +10207,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="99" t="s">
         <v>741</v>
       </c>
-      <c r="B8" s="95"/>
+      <c r="B8" s="99"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -9835,10 +10237,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="99" t="s">
         <v>743</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="99"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -9857,10 +10259,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="99" t="s">
         <v>809</v>
       </c>
-      <c r="B16" s="95"/>
+      <c r="B16" s="99"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -9935,10 +10337,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="99" t="s">
         <v>819</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="99"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -10269,10 +10671,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="99" t="s">
         <v>877</v>
       </c>
-      <c r="B69" s="95"/>
+      <c r="B69" s="99"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -10315,16 +10717,16 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="99" t="s">
         <v>879</v>
       </c>
-      <c r="B76" s="95"/>
+      <c r="B76" s="99"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="96" t="s">
+      <c r="A77" s="98" t="s">
         <v>880</v>
       </c>
-      <c r="B77" s="96"/>
+      <c r="B77" s="98"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -10351,10 +10753,10 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="96" t="s">
+      <c r="A82" s="98" t="s">
         <v>884</v>
       </c>
-      <c r="B82" s="96"/>
+      <c r="B82" s="98"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -10381,10 +10783,10 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="96" t="s">
+      <c r="A86" s="98" t="s">
         <v>886</v>
       </c>
-      <c r="B86" s="96"/>
+      <c r="B86" s="98"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -10402,17 +10804,420 @@
         <v>826</v>
       </c>
     </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="98" t="s">
+        <v>899</v>
+      </c>
+      <c r="B90" s="98"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>821</v>
+      </c>
+      <c r="B91" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
+        <v>865</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
+        <v>866</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
+        <v>867</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
+        <v>868</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>869</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
+        <v>870</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
+        <v>871</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="98" t="s">
+        <v>902</v>
+      </c>
+      <c r="B100" s="98"/>
+    </row>
+    <row r="101" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="s">
+        <v>835</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="s">
+        <v>836</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="s">
+        <v>839</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="64" t="s">
+        <v>837</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="64" t="s">
+        <v>843</v>
+      </c>
+      <c r="B105" s="64">
+        <v>6418677</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="64" t="s">
+        <v>844</v>
+      </c>
+      <c r="B106">
+        <v>6418823</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>845</v>
+      </c>
+      <c r="B107">
+        <v>6418830</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="64" t="s">
+        <v>846</v>
+      </c>
+      <c r="B108">
+        <v>6418758</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
+        <v>850</v>
+      </c>
+      <c r="B109" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="64" t="s">
+        <v>851</v>
+      </c>
+      <c r="B110" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="B111" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="64" t="s">
+        <v>853</v>
+      </c>
+      <c r="B112" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="64" t="s">
+        <v>821</v>
+      </c>
+      <c r="B113" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="s">
+        <v>878</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="64" t="s">
+        <v>878</v>
+      </c>
+      <c r="B115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="64" t="s">
+        <v>878</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="64" t="s">
+        <v>878</v>
+      </c>
+      <c r="B117">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="64"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="98" t="s">
+        <v>903</v>
+      </c>
+      <c r="B119" s="98"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="53" t="s">
+        <v>835</v>
+      </c>
+      <c r="B120" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="53" t="s">
+        <v>836</v>
+      </c>
+      <c r="B121" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="53" t="s">
+        <v>839</v>
+      </c>
+      <c r="B122" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="53" t="s">
+        <v>837</v>
+      </c>
+      <c r="B123" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="53" t="s">
+        <v>838</v>
+      </c>
+      <c r="B124" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="64" t="s">
+        <v>843</v>
+      </c>
+      <c r="B125">
+        <v>6418677</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="64" t="s">
+        <v>844</v>
+      </c>
+      <c r="B126">
+        <v>6418823</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="64" t="s">
+        <v>845</v>
+      </c>
+      <c r="B127">
+        <v>6418830</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="64" t="s">
+        <v>846</v>
+      </c>
+      <c r="B128">
+        <v>6418758</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="64" t="s">
+        <v>847</v>
+      </c>
+      <c r="B129">
+        <v>6418762</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="64" t="s">
+        <v>850</v>
+      </c>
+      <c r="B130" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="64" t="s">
+        <v>851</v>
+      </c>
+      <c r="B131" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="B132" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="64" t="s">
+        <v>853</v>
+      </c>
+      <c r="B133" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="64" t="s">
+        <v>854</v>
+      </c>
+      <c r="B134" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="64" t="s">
+        <v>821</v>
+      </c>
+      <c r="B135" s="64" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="64" t="s">
+        <v>863</v>
+      </c>
+      <c r="B136" s="64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="64" t="s">
+        <v>865</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="64" t="s">
+        <v>866</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="64" t="s">
+        <v>867</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="64" t="s">
+        <v>868</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="64" t="s">
+        <v>869</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A86:B86"/>
+  <mergeCells count="12">
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A119:B119"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A86:B86"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -10420,15 +11225,16 @@
     <hyperlink ref="B80" r:id="rId2" xr:uid="{CE78F7D2-9A95-4655-A9EA-1D97EE026DBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B5B624-5805-4F50-8749-3842B8ACBFAA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10485,7 +11291,1942 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>892</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>894</v>
+      </c>
+      <c r="B10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>895</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>896</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="s">
+        <v>897</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>898</v>
+      </c>
+      <c r="B14" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
+        <v>924</v>
+      </c>
+      <c r="B16" s="100"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>904</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>905</v>
+      </c>
+      <c r="B19" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>906</v>
+      </c>
+      <c r="B21" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="B23">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>909</v>
+      </c>
+      <c r="B24">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="100"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>911</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>912</v>
+      </c>
+      <c r="B29" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>915</v>
+      </c>
+      <c r="B31" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>917</v>
+      </c>
+      <c r="B32" s="41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>918</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="100" t="s">
+        <v>921</v>
+      </c>
+      <c r="B35" s="100"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>919</v>
+      </c>
+      <c r="B36" s="41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>906</v>
+      </c>
+      <c r="B37" s="80">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="B38" s="80">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="B39" s="80">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>920</v>
+      </c>
+      <c r="B40" s="80">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B41" s="80">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>922</v>
+      </c>
+      <c r="B42" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="100" t="s">
+        <v>925</v>
+      </c>
+      <c r="B44" s="100"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>905</v>
+      </c>
+      <c r="B46" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="B48" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="B49" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="B50" s="64">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>909</v>
+      </c>
+      <c r="B51" s="64">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B52" s="64">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A44:B44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D735E2-F879-461F-89A7-7C87512FB954}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="100" t="s">
+        <v>927</v>
+      </c>
+      <c r="B6" s="100"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>894</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>895</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
+        <v>896</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
+        <v>897</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>898</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="100" t="s">
+        <v>925</v>
+      </c>
+      <c r="B14" s="100"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>905</v>
+      </c>
+      <c r="B16" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="B18" s="8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="B19" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="B20" s="64">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>909</v>
+      </c>
+      <c r="B21" s="64">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B22" s="64">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
+        <v>924</v>
+      </c>
+      <c r="B24" s="100"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="64">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>904</v>
+      </c>
+      <c r="B26" s="64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
+        <v>905</v>
+      </c>
+      <c r="B27" s="41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="B29" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="B30" s="64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="B31" s="64">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>909</v>
+      </c>
+      <c r="B32" s="64">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B33" s="64">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="100" t="s">
+        <v>928</v>
+      </c>
+      <c r="B35" s="100"/>
+    </row>
+    <row r="36" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>929</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>931</v>
+      </c>
+      <c r="B39" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="100" t="s">
+        <v>932</v>
+      </c>
+      <c r="B41" s="100"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="64"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>911</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
+        <v>912</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>915</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
+        <v>917</v>
+      </c>
+      <c r="B47" s="41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
+        <v>918</v>
+      </c>
+      <c r="B48" s="64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="100" t="s">
+        <v>921</v>
+      </c>
+      <c r="B50" s="100"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
+        <v>919</v>
+      </c>
+      <c r="B51" s="41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="B52" s="80">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="B53" s="80">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
+        <v>908</v>
+      </c>
+      <c r="B54" s="80">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="64" t="s">
+        <v>920</v>
+      </c>
+      <c r="B55" s="80">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="B56" s="80">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="64" t="s">
+        <v>922</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="100" t="s">
+        <v>933</v>
+      </c>
+      <c r="B59" s="100"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
+        <v>792</v>
+      </c>
+      <c r="B60" s="64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="64" t="s">
+        <v>793</v>
+      </c>
+      <c r="B61" s="64">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A41:B41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AFF293-3F8B-4954-8CCC-0CA30F711BC1}">
+  <dimension ref="A1:B150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B4">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
+        <v>978</v>
+      </c>
+      <c r="B7" s="100"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>936</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B9" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>938</v>
+      </c>
+      <c r="B10" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>939</v>
+      </c>
+      <c r="B11" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>940</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>941</v>
+      </c>
+      <c r="B13" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>942</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>943</v>
+      </c>
+      <c r="B15" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>944</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>945</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>947</v>
+      </c>
+      <c r="B19" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>949</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>950</v>
+      </c>
+      <c r="B22" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>951</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>952</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>953</v>
+      </c>
+      <c r="B25" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>954</v>
+      </c>
+      <c r="B26">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>956</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>957</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>958</v>
+      </c>
+      <c r="B30">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>959</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>960</v>
+      </c>
+      <c r="B32" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>961</v>
+      </c>
+      <c r="B33" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>962</v>
+      </c>
+      <c r="B34" s="64"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>963</v>
+      </c>
+      <c r="B35" s="64"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>964</v>
+      </c>
+      <c r="B36" s="64"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>965</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>966</v>
+      </c>
+      <c r="B38">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>967</v>
+      </c>
+      <c r="B39">
+        <v>20320172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40">
+        <v>95661</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="100" t="s">
+        <v>979</v>
+      </c>
+      <c r="B42" s="100"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>980</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>981</v>
+      </c>
+      <c r="B44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>712</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>983</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>715</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>714</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>984</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>985</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>986</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>987</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>988</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>990</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>991</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>718</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>992</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>993</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>994</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>995</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>996</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>997</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>998</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>999</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="100" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B70" s="100"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>672</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="100" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B79" s="100"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="64" t="s">
+        <v>940</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="B82" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
+        <v>942</v>
+      </c>
+      <c r="B83">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>950</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
+        <v>951</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="100" t="s">
+        <v>978</v>
+      </c>
+      <c r="B88" s="100"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="s">
+        <v>937</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="s">
+        <v>938</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
+        <v>939</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
+        <v>940</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="64" t="s">
+        <v>942</v>
+      </c>
+      <c r="B95" s="64">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="64" t="s">
+        <v>943</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="64" t="s">
+        <v>944</v>
+      </c>
+      <c r="B97" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="64" t="s">
+        <v>945</v>
+      </c>
+      <c r="B98" s="64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="s">
+        <v>946</v>
+      </c>
+      <c r="B99" s="64"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
+        <v>947</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="s">
+        <v>948</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="s">
+        <v>950</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="64" t="s">
+        <v>951</v>
+      </c>
+      <c r="B104" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="64" t="s">
+        <v>952</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="64" t="s">
+        <v>953</v>
+      </c>
+      <c r="B106" s="64" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
+        <v>954</v>
+      </c>
+      <c r="B107" s="64">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="64" t="s">
+        <v>955</v>
+      </c>
+      <c r="B108" s="64"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
+        <v>956</v>
+      </c>
+      <c r="B109" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="64" t="s">
+        <v>957</v>
+      </c>
+      <c r="B110" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="64" t="s">
+        <v>958</v>
+      </c>
+      <c r="B111" s="64">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="64" t="s">
+        <v>959</v>
+      </c>
+      <c r="B112" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="64" t="s">
+        <v>960</v>
+      </c>
+      <c r="B113" s="64" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="s">
+        <v>961</v>
+      </c>
+      <c r="B114" s="64" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="64" t="s">
+        <v>962</v>
+      </c>
+      <c r="B115" s="64"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="64" t="s">
+        <v>963</v>
+      </c>
+      <c r="B116" s="64"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="64" t="s">
+        <v>964</v>
+      </c>
+      <c r="B117" s="64"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="64" t="s">
+        <v>965</v>
+      </c>
+      <c r="B118" s="64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="64" t="s">
+        <v>966</v>
+      </c>
+      <c r="B119" s="64">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="64" t="s">
+        <v>967</v>
+      </c>
+      <c r="B120" s="64">
+        <v>20320172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" s="64">
+        <v>95661</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="64"/>
+      <c r="B122" s="64"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="100" t="s">
+        <v>979</v>
+      </c>
+      <c r="B123" s="100"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="64" t="s">
+        <v>980</v>
+      </c>
+      <c r="B124" s="64" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="64" t="s">
+        <v>981</v>
+      </c>
+      <c r="B125" s="64">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="64" t="s">
+        <v>982</v>
+      </c>
+      <c r="B126" s="64"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="B127" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="64" t="s">
+        <v>983</v>
+      </c>
+      <c r="B128" s="64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="64" t="s">
+        <v>715</v>
+      </c>
+      <c r="B129" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="64" t="s">
+        <v>714</v>
+      </c>
+      <c r="B130" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="64" t="s">
+        <v>984</v>
+      </c>
+      <c r="B131" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="64" t="s">
+        <v>985</v>
+      </c>
+      <c r="B132" s="64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="64" t="s">
+        <v>986</v>
+      </c>
+      <c r="B133" s="64" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="64" t="s">
+        <v>987</v>
+      </c>
+      <c r="B134" s="64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="64" t="s">
+        <v>988</v>
+      </c>
+      <c r="B135" s="64" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="64" t="s">
+        <v>989</v>
+      </c>
+      <c r="B136" s="64"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="64" t="s">
+        <v>990</v>
+      </c>
+      <c r="B137" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="64" t="s">
+        <v>991</v>
+      </c>
+      <c r="B138" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="64" t="s">
+        <v>718</v>
+      </c>
+      <c r="B139" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="64" t="s">
+        <v>992</v>
+      </c>
+      <c r="B140" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="64" t="s">
+        <v>993</v>
+      </c>
+      <c r="B141" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="64" t="s">
+        <v>994</v>
+      </c>
+      <c r="B142" s="64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="64" t="s">
+        <v>995</v>
+      </c>
+      <c r="B143" s="64" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="64" t="s">
+        <v>996</v>
+      </c>
+      <c r="B144" s="64" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="64" t="s">
+        <v>997</v>
+      </c>
+      <c r="B145" s="64" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="64" t="s">
+        <v>998</v>
+      </c>
+      <c r="B146" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="64" t="s">
+        <v>999</v>
+      </c>
+      <c r="B147" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="64" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B148" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="64" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B149" s="64" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="64"/>
+      <c r="B150" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A123:B123"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11028,10 +13769,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="86"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -11058,10 +13799,10 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="86"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -11088,10 +13829,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="83"/>
+      <c r="B21" s="86"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -11278,10 +14019,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="83"/>
+      <c r="B45" s="86"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11404,10 +14145,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="B61" s="80"/>
+      <c r="B61" s="83"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -11426,10 +14167,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="83" t="s">
+      <c r="A65" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="80"/>
+      <c r="B65" s="83"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -11448,10 +14189,10 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="80"/>
+      <c r="B69" s="83"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -11462,10 +14203,10 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="B71" s="80"/>
+      <c r="B71" s="83"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -27888,10 +30629,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -27918,10 +30659,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="83"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -27988,10 +30729,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="83"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -28043,10 +30784,10 @@
       <c r="B22" s="64"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="86" t="s">
         <v>679</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="83"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
@@ -28131,10 +30872,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="83"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -28265,10 +31006,10 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="80"/>
+      <c r="B24" s="83"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -28455,10 +31196,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="80"/>
+      <c r="B49" s="83"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
@@ -28477,10 +31218,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="B53" s="80"/>
+      <c r="B53" s="83"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -28515,10 +31256,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="86" t="s">
         <v>264</v>
       </c>
-      <c r="B59" s="80"/>
+      <c r="B59" s="83"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
@@ -28537,10 +31278,10 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="B63" s="80"/>
+      <c r="B63" s="83"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -28939,10 +31680,10 @@
       <c r="D3" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
     </row>
@@ -28988,10 +31729,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
     </row>
@@ -29064,10 +31805,10 @@
       <c r="D20" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="86" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
@@ -29088,10 +31829,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
     </row>
